--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/04_コーヒーチケット管理.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/04_コーヒーチケット管理.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="要求" sheetId="2" r:id="rId2"/>
     <sheet name="コーヒーチケット管理" sheetId="3" r:id="rId3"/>
     <sheet name="Message" sheetId="4" r:id="rId4"/>
+    <sheet name="改訂履歴" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
   <si>
     <t>コーヒーチケット管理</t>
     <rPh sb="8" eb="10">
@@ -247,10 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Contents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Details</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -295,93 +292,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(一覧)</t>
-    <rPh sb="1" eb="3">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧表</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドルチェグスト(7枚500円)</t>
-    <rPh sb="9" eb="10">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧内項目名</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入</t>
-    <rPh sb="0" eb="2">
-      <t>コウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧で選択されたコーヒーの購入を実行するボタン</t>
-    <rPh sb="0" eb="2">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消費</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一覧で選択された購入したチケットの消費を実行するボタン</t>
-    <rPh sb="8" eb="10">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テキスト</t>
   </si>
   <si>
@@ -401,28 +311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(1)セルをクリックした際、コントロール状態となり、購入や消費の操作が行える。</t>
-    <rPh sb="12" eb="13">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(1)コーヒーの種類が選択されず、ボタンが押下された場合、エラーメッセージを表示する。</t>
     <rPh sb="8" eb="10">
       <t>シュルイ</t>
@@ -611,10 +499,6 @@
   </si>
   <si>
     <t>メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -862,29 +746,170 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バリスタ(7枚250円)</t>
-    <rPh sb="6" eb="7">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 　　(*1）一覧表の内容は下記の通り。</t>
-    <rPh sb="7" eb="10">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドルチェグスト(ラジオボタン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂分類</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>トオ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂前</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂後</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一回レビュー指摘対応</t>
+    <rPh sb="0" eb="3">
+      <t>ダイイッカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理]
+記載なし
+</t>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドルチェグストを選択するためのラジオボタン</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリスタ(ラジオボタン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリスタを選択するためのラジオボタン</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格はそれぞれ、ドルチェグスト(7枚500円)、バリスタ(7枚250円)</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理]
+ドルチェグスト(ラジオボタン)
+バリスタ(ラジオボタン)
+価格はそれぞれ、ドルチェグスト(7枚500円)、バリスタ(7枚250円)
+行追加
+</t>
+    <rPh sb="79" eb="80">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理]
+記載無し
+</t>
+    <rPh sb="13" eb="15">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理]
+購入
+消費
+</t>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理]
+一覧表
+</t>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -892,26 +917,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>[コーヒーチケット管理]
+一覧表行削除。
+それに伴い(*1)の記述を削除し、ラジオボタンの記述に変更。</t>
+    <rPh sb="16" eb="17">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>(*2)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 　　(*2）一覧表の仕様は下記に記す。</t>
-    <rPh sb="7" eb="10">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(*3)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -920,15 +956,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(*5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(*5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 　　(*3)購入の仕様は下記に記す。</t>
+    <t xml:space="preserve"> 　　(*2)購入の仕様は下記に記す。</t>
     <rPh sb="7" eb="9">
       <t>コウニュウ</t>
     </rPh>
@@ -938,7 +966,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 　　(*4)消費の仕様は下記に記す。</t>
+    <t xml:space="preserve"> 　　(*3)消費の仕様は下記に記す。</t>
     <rPh sb="7" eb="9">
       <t>ショウヒ</t>
     </rPh>
@@ -948,7 +976,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> 　　(*5)残数の仕様は下記に記す。</t>
+    <t xml:space="preserve"> 　　(*4)残数の仕様は下記に記す。</t>
     <rPh sb="7" eb="8">
       <t>ザン</t>
     </rPh>
@@ -963,6 +991,370 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)両方のラジオボタンを同時に選択することはできない。</t>
+    <rPh sb="3" eb="5">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→「画面遷移は行わず、画面更新」を行う、また「画面更新」の際はローディング画面を表示する。</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理]
+消費と購入の処理完了後のシステムの振る舞いについて記載。</t>
+    <rPh sb="13" eb="15">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ(初期画面)</t>
+    <rPh sb="5" eb="7">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[コーヒーチケット管理]
+初期画面のイメージを追加。
+</t>
+    <rPh sb="13" eb="15">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)上記2種類のラジオボタンのうちどちらかが選択されているとき、購入、消費の操作可能。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指摘対応外</t>
+    <rPh sb="0" eb="2">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ソト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理]
+画面に表示する残数の単位が抜けていたため追記。</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ザンスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[コーヒーチケット管理]
+購入(7枚購入)
+消費(1枚消費)
+行の文言変更
+それに伴いContentsの文言も変更。</t>
+    <rPh sb="13" eb="15">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローディングに関しては「02_コーヒーチケット管理システム(共通画面)」の[コーヒーチケット管理システム(共通画面)]シートを参照。</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-15)</t>
+    <rPh sb="1" eb="3">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改定A-16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入(7枚購入)(改定A-17)</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費(1枚消費)(改定A-17)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンで選択されたチケットの購入を実行するボタン(改定A-17)</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオボタンで選択されたチケットの消費を実行するボタン(改定A-17)</t>
+    <rPh sb="17" eb="19">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　　(*1）ラジオボタンの仕様は以下に記す。(改定A-18)</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)両方とも最後尾には枚を付与する。(改定A-20)</t>
+    <rPh sb="3" eb="5">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイコウビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3)チケット購入が行われる際の振る舞いとしての動作(改定A-19)</t>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4)チケット消費が行われる際の振る舞いとしての動作(改定A-19)</t>
+    <rPh sb="7" eb="9">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1005,15 +1397,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1049,13 +1447,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1586,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,6 +1665,1005 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EEC3DF-705D-4011-BADD-FDFE35341E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="1771650"/>
+          <a:ext cx="5267326" cy="1914526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409701" cy="257175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D0D8DA-360D-4084-9353-83AF19976DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1009649" y="1800225"/>
+          <a:ext cx="1409701" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コーヒーチケット管理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333373</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1571627" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54CDCE3-54AF-46DE-9488-BA73E53C3A41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704973" y="2276475"/>
+          <a:ext cx="1571627" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ドルチェグスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ラジオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1190625" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB38466E-B923-4929-A96E-2C7B51414E34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="2495550"/>
+          <a:ext cx="1190625" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・バリスタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ラジオ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4000500" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD12FF08-BD9C-4A56-BA49-F8701928E926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="2028825"/>
+          <a:ext cx="4000500" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・価格はそれぞれ、ドルチェグスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>枚</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>500</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、バリスタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>枚</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>250</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="521735"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD7D280-C342-4A9D-AEB9-E609E5446A02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="2847975"/>
+          <a:ext cx="923925" cy="521735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1057275" cy="600075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D61046-8F15-48AE-97D6-8AC61AB80E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="2838450"/>
+          <a:ext cx="1057275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>枚購入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1057275" cy="600075"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F2025C-60A0-4975-8883-6F098E3975FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="2828925"/>
+          <a:ext cx="1057275" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>消費</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>枚消費</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFBB185-6FDB-44AE-BC77-867367E62266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="2381250"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2562224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3876675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6EEBD1-DCC5-4864-BBC2-0D7F2818A123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933824" y="2733675"/>
+          <a:ext cx="1314451" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドルチェグスト残数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2562225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3543300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144C9DB4-FF73-46D7-B6AC-485FD9A9582C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="3133725"/>
+          <a:ext cx="981075" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バリスタ残数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4095749</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="809625" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFDB3CD-3AC4-48C3-992D-8E91B18B1BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5467349" y="2714625"/>
+          <a:ext cx="809625" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>999</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>枚</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4105275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="809625" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF267A69-DCC8-43AE-922C-58E050451587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="3143250"/>
+          <a:ext cx="809625" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>999</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>枚</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15DFB17-37C5-430A-8E8A-D264DA45CFA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3038475" y="1952625"/>
+          <a:ext cx="3924300" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2124075" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98010F9-2FA5-4DED-BC23-5EEB68D356BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="1704975"/>
+          <a:ext cx="2124075" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ドルチェグストもバリスタもラジオボタンで表示する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1401,7 +2931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1500,367 +3030,629 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="35.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="36"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="36"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
+        <f>ROW()-24</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="4">
-        <f>ROW()-9</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="4">
-        <f t="shared" ref="B11:B17" si="0">ROW()-9</f>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="21">
+        <f t="shared" ref="B26:B34" si="0">ROW()-24</f>
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="4">
+      <c r="C26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="4">
+      <c r="C27" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="4">
+      <c r="C28" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="4">
+      <c r="C29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="4">
+      <c r="C30" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="4">
+      <c r="C31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="4">
-        <f>ROW()-21</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="4">
-        <f>ROW()-21</f>
-        <v>2</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="2" t="s">
-        <v>39</v>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+    </row>
+    <row r="37" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B42" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B43" s="2" t="s">
-        <v>41</v>
+      <c r="A42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B50" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B51" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B60" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B65" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B46" s="2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
+      <c r="G3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="2" t="s">
-        <v>49</v>
+      <c r="E7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1870,151 +3662,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="25">
+        <v>15</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="28">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="27"/>
+      <c r="C5" s="25">
+        <v>16</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="28">
+        <v>42859</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="27"/>
+      <c r="C6" s="25">
+        <v>17</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="27"/>
+      <c r="C7" s="25">
+        <v>18</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="27"/>
+      <c r="C8" s="25">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B4" s="11">
-        <f>ROW()-3</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="D8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>66</v>
+      <c r="E8" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25">
+        <v>20</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="30">
+        <v>42859</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/04_コーヒーチケット管理.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/04_コーヒーチケット管理.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Desktop\機能仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="要求" sheetId="2" r:id="rId2"/>
     <sheet name="コーヒーチケット管理" sheetId="3" r:id="rId3"/>
-    <sheet name="Message" sheetId="4" r:id="rId4"/>
-    <sheet name="改訂履歴" sheetId="5" r:id="rId5"/>
+    <sheet name="画面" sheetId="6" r:id="rId4"/>
+    <sheet name="Message" sheetId="4" r:id="rId5"/>
+    <sheet name="改訂履歴" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1362,7 +1363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1687,7 +1688,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EEC3DF-705D-4011-BADD-FDFE35341E97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0EEC3DF-705D-4011-BADD-FDFE35341E97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1749,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D0D8DA-360D-4084-9353-83AF19976DEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34D0D8DA-360D-4084-9353-83AF19976DEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1811,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54CDCE3-54AF-46DE-9488-BA73E53C3A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C54CDCE3-54AF-46DE-9488-BA73E53C3A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1882,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB38466E-B923-4929-A96E-2C7B51414E34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB38466E-B923-4929-A96E-2C7B51414E34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,7 +1953,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD12FF08-BD9C-4A56-BA49-F8701928E926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD12FF08-BD9C-4A56-BA49-F8701928E926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2055,7 +2056,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD7D280-C342-4A9D-AEB9-E609E5446A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD7D280-C342-4A9D-AEB9-E609E5446A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2111,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D61046-8F15-48AE-97D6-8AC61AB80E9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69D61046-8F15-48AE-97D6-8AC61AB80E9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2184,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F2025C-60A0-4975-8883-6F098E3975FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13F2025C-60A0-4975-8883-6F098E3975FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2257,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFBB185-6FDB-44AE-BC77-867367E62266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCFBB185-6FDB-44AE-BC77-867367E62266}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2317,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6EEBD1-DCC5-4864-BBC2-0D7F2818A123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C6EEBD1-DCC5-4864-BBC2-0D7F2818A123}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2383,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144C9DB4-FF73-46D7-B6AC-485FD9A9582C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144C9DB4-FF73-46D7-B6AC-485FD9A9582C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2444,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFDB3CD-3AC4-48C3-992D-8E91B18B1BAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AFDB3CD-3AC4-48C3-992D-8E91B18B1BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2506,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF267A69-DCC8-43AE-922C-58E050451587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF267A69-DCC8-43AE-922C-58E050451587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2573,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15DFB17-37C5-430A-8E8A-D264DA45CFA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A15DFB17-37C5-430A-8E8A-D264DA45CFA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2619,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98010F9-2FA5-4DED-BC23-5EEB68D356BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98010F9-2FA5-4DED-BC23-5EEB68D356BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,6 +2664,87 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>36671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>36671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11722100"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2935,43 +3017,43 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2991,33 +3073,33 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3032,50 +3114,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="56.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>98</v>
       </c>
@@ -3085,85 +3167,85 @@
       </c>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="37"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -3177,7 +3259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="4">
         <f>ROW()-24</f>
         <v>1</v>
@@ -3192,7 +3274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="21">
         <f t="shared" ref="B26:B34" si="0">ROW()-24</f>
         <v>2</v>
@@ -3210,7 +3292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3228,7 +3310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3246,7 +3328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3262,7 +3344,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3278,7 +3360,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3293,7 +3375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3308,7 +3390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3323,7 +3405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3338,13 +3420,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>113</v>
       </c>
@@ -3355,7 +3437,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="34"/>
     </row>
-    <row r="37" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -3363,25 +3445,25 @@
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="32" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -3392,48 +3474,48 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B50" s="32" t="s">
         <v>116</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>93</v>
       </c>
@@ -3444,58 +3526,58 @@
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B65" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B66" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -3506,17 +3588,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B75" s="32" t="s">
         <v>114</v>
       </c>
@@ -3532,30 +3614,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
@@ -3575,7 +3673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>55</v>
       </c>
@@ -3595,7 +3693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
         <v>59</v>
       </c>
@@ -3615,7 +3713,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>61</v>
       </c>
@@ -3635,7 +3733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="52" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
@@ -3662,24 +3760,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>68</v>
       </c>
@@ -3697,7 +3795,7 @@
       </c>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -3709,7 +3807,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:7" ht="65" x14ac:dyDescent="0.2">
       <c r="B4" s="39" t="s">
         <v>115</v>
       </c>
@@ -3729,7 +3827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B5" s="27"/>
       <c r="C5" s="25">
         <v>16</v>
@@ -3747,7 +3845,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B6" s="27"/>
       <c r="C6" s="25">
         <v>17</v>
@@ -3765,7 +3863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="25">
         <v>18</v>
@@ -3783,7 +3881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="25">
         <v>19</v>
@@ -3801,7 +3899,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="25">
         <v>20</v>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/04_コーヒーチケット管理.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/04_コーヒーチケット管理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="127">
   <si>
     <t>コーヒーチケット管理</t>
     <rPh sb="8" eb="10">
@@ -193,25 +193,6 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーがコーヒーチケットのオペレーションをしたり、残数を把握するのに使用する機能である。</t>
-    <rPh sb="26" eb="27">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハアク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1359,11 +1340,141 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面イメージ(改定F-1)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第五回レビュー指摘対応</t>
+    <rPh sb="0" eb="2">
+      <t>ダイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[概要]
+オペレーションの表記
+</t>
+    <rPh sb="1" eb="3">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[概要]
+表現が不自然であったため、コーヒーチケットに関する操作という表現に変更。</t>
+    <rPh sb="1" eb="3">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フシゼン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがコーヒーチケットに関する操作をしたり、残数を把握するのに使用する機能である。(改定E-1)</t>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー外変更</t>
+    <rPh sb="4" eb="5">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[画面]
+-
+</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[画面]
+イメージシートの追加。</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1524,7 +1635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1650,6 +1761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1688,7 +1802,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E0EEC3DF-705D-4011-BADD-FDFE35341E97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EEC3DF-705D-4011-BADD-FDFE35341E97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1863,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34D0D8DA-360D-4084-9353-83AF19976DEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D0D8DA-360D-4084-9353-83AF19976DEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1925,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C54CDCE3-54AF-46DE-9488-BA73E53C3A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54CDCE3-54AF-46DE-9488-BA73E53C3A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1996,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB38466E-B923-4929-A96E-2C7B51414E34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB38466E-B923-4929-A96E-2C7B51414E34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +2067,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD12FF08-BD9C-4A56-BA49-F8701928E926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD12FF08-BD9C-4A56-BA49-F8701928E926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2170,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BD7D280-C342-4A9D-AEB9-E609E5446A02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD7D280-C342-4A9D-AEB9-E609E5446A02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2225,7 @@
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69D61046-8F15-48AE-97D6-8AC61AB80E9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D61046-8F15-48AE-97D6-8AC61AB80E9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2298,7 @@
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13F2025C-60A0-4975-8883-6F098E3975FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F2025C-60A0-4975-8883-6F098E3975FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2371,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BCFBB185-6FDB-44AE-BC77-867367E62266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFBB185-6FDB-44AE-BC77-867367E62266}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2431,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C6EEBD1-DCC5-4864-BBC2-0D7F2818A123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6EEBD1-DCC5-4864-BBC2-0D7F2818A123}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2497,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{144C9DB4-FF73-46D7-B6AC-485FD9A9582C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{144C9DB4-FF73-46D7-B6AC-485FD9A9582C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2558,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4AFDB3CD-3AC4-48C3-992D-8E91B18B1BAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFDB3CD-3AC4-48C3-992D-8E91B18B1BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2620,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF267A69-DCC8-43AE-922C-58E050451587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF267A69-DCC8-43AE-922C-58E050451587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2687,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A15DFB17-37C5-430A-8E8A-D264DA45CFA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15DFB17-37C5-430A-8E8A-D264DA45CFA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2733,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C98010F9-2FA5-4DED-BC23-5EEB68D356BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98010F9-2FA5-4DED-BC23-5EEB68D356BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,18 +2787,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>607314</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>36671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2711,18 +2831,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>607314</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>36671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3011,49 +3137,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -3073,33 +3207,33 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3118,148 +3252,148 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="56.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="37"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <f>ROW()-24</f>
         <v>1</v>
@@ -3268,167 +3402,167 @@
         <v>9</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" s="21">
         <f t="shared" ref="B26:B34" si="0">ROW()-24</f>
         <v>2</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>79</v>
-      </c>
       <c r="E27" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B28" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C28" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>81</v>
-      </c>
       <c r="E28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -3437,7 +3571,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="34"/>
     </row>
-    <row r="37" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -3445,27 +3579,27 @@
       <c r="F37" s="33"/>
       <c r="G37" s="34"/>
     </row>
-    <row r="38" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3474,50 +3608,50 @@
       <c r="F42" s="7"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B50" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B51" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -3526,60 +3660,60 @@
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B57" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B65" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B66" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B67" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3588,19 +3722,19 @@
       <c r="F69" s="7"/>
       <c r="G69" s="8"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B75" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="32"/>
     </row>
@@ -3616,12 +3750,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3636,121 +3779,121 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G5" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="78" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E7" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="78" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="52" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3762,159 +3905,199 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>72</v>
-      </c>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="65" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="25">
         <v>15</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="28">
         <v>42859</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B5" s="27"/>
       <c r="C5" s="25">
         <v>16</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="28">
         <v>42859</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B6" s="27"/>
       <c r="C6" s="25">
         <v>17</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="30">
         <v>42859</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B7" s="27"/>
       <c r="C7" s="25">
         <v>18</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="30">
         <v>42859</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B8" s="27"/>
       <c r="C8" s="25">
         <v>19</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="30">
         <v>42859</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B9" s="25"/>
       <c r="C9" s="25">
         <v>20</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="30">
         <v>42859</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="30">
+        <v>42906</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="30">
+        <v>42935</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
